--- a/Excel/edit_menu_find_zero_crossings.xlsx
+++ b/Excel/edit_menu_find_zero_crossings.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -37,19 +37,19 @@
     <t>Find Zero Crossings has been moved (for Audacity 2.2.0 and onwards) from the Edit menu to the Region submenu of the Select Menu and renamed to At Zero Crossings.Accessed by: Select &gt; At Zero Crossings or its Z shortcut.</t>
   </si>
   <si>
-    <t>मेनू संपादित करा: शून्य क्रॉसिंग - ऑडसिटी मॅन्युअल शोधा</t>
-  </si>
-  <si>
-    <t>मेनू संपादित करा: शून्य क्रॉसिंग शोधा</t>
-  </si>
-  <si>
-    <t>ऑडसिटी डेव्हलपमेंट मॅन्युअल वरुन</t>
-  </si>
-  <si>
-    <t>येथे जा: सुचालन, शोध</t>
-  </si>
-  <si>
-    <t>शोधा झीरो क्रॉसिंग्ज (ऑडसिटी २.२.० आणि नंतर साठी) संपादन मेनूमधून सिलेक्ट मेनूच्या प्रदेश उपमेनूमध्ये हलविण्यात आले आहेत आणि त्याचे नाव एट झिरो क्रॉसिंगवर ठेवण्यात आले आहे. याद्वारे :क्सेस केलेले: निवडा&gt; झीरो क्रॉसिंग किंवा त्याच्या झेड शॉर्टकटवर.</t>
+    <t>संपादन मेन्यू : शून्य क्रॉसिंग शोधा - ओड्यासिटी माहितीपुस्तका</t>
+  </si>
+  <si>
+    <t>संपादन मेन्यू : शून्य क्रॉसिंग शोधा</t>
+  </si>
+  <si>
+    <t>ओड्यासिटी विकासाच्या माहितीपुस्तीकेवरून</t>
+  </si>
+  <si>
+    <t>येथे जा: निर्देशांक, शोधा</t>
+  </si>
+  <si>
+    <t>शोधा झीरो क्रॉसिंग्ज (ओड्यासिटी २.२.० आणि नंतर साठी) संपादन मेनूमधून निवडलेल्या मेनूच्या प्रदेश उपमेनूमध्ये हलविण्यात आले आहेत आणि त्याचे नाव एट झिरो क्रॉसिंगवर ठेवण्यात आले आहे. याद्वारे :क्सेस केलेले: निवडा&gt; झीरो क्रॉसिंग किंवा त्याच्या झेड शॉर्टकटवर.</t>
   </si>
 </sst>
 </file>
@@ -409,9 +409,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="28.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
